--- a/data/Verdbolguvaentingar-a-mismunandi-maelikvarda.xlsx
+++ b/data/Verdbolguvaentingar-a-mismunandi-maelikvarda.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29421"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4126A5A2-C7F5-4161-B917-46F73D2C4D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E22569C-C715-48B0-8437-49523F558166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25260" yWindow="21600" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heimili_Households" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="123">
   <si>
     <t>Verðbólguvæntingar heimila / Household inflation expectations</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>2025Q2</t>
+  </si>
+  <si>
+    <t>2025Q3</t>
   </si>
   <si>
     <t>Meðaltal / average</t>
@@ -1054,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CM35"/>
+  <dimension ref="A1:CN35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CI1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CL1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -1073,10 +1076,10 @@
     <col min="49" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" ht="17.25">
+    <row r="1" spans="1:92" ht="17.25">
       <c r="A1" s="8"/>
     </row>
-    <row r="2" spans="1:91">
+    <row r="2" spans="1:92">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1125,28 +1128,28 @@
       <c r="AR2" s="10"/>
       <c r="AS2" s="10"/>
     </row>
-    <row r="3" spans="1:91" ht="17.25">
+    <row r="3" spans="1:92" ht="17.25">
       <c r="A3" s="8"/>
     </row>
-    <row r="4" spans="1:91">
+    <row r="4" spans="1:92">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:91">
+    <row r="5" spans="1:92">
       <c r="A5" s="11"/>
     </row>
-    <row r="6" spans="1:91">
+    <row r="6" spans="1:92">
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:91">
+    <row r="7" spans="1:92">
       <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:91">
+    <row r="8" spans="1:92">
       <c r="A8" s="14" t="s">
         <v>4</v>
       </c>
@@ -1230,8 +1233,9 @@
       <c r="CK8" s="15"/>
       <c r="CL8" s="15"/>
       <c r="CM8" s="15"/>
+      <c r="CN8" s="15"/>
     </row>
-    <row r="9" spans="1:91">
+    <row r="9" spans="1:92">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1283,7 +1287,7 @@
       <c r="BZ9" s="16"/>
       <c r="CA9" s="16"/>
     </row>
-    <row r="10" spans="1:91">
+    <row r="10" spans="1:92">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1554,10 +1558,13 @@
       <c r="CM10" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="CN10" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="11" spans="1:91">
+    <row r="11" spans="1:92">
       <c r="A11" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B11" s="5">
         <v>3.6</v>
@@ -1829,10 +1836,13 @@
       <c r="CM11" s="2">
         <v>5.3</v>
       </c>
+      <c r="CN11" s="2">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="12" spans="1:91">
+    <row r="12" spans="1:92">
       <c r="A12" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B12" s="5">
         <v>3</v>
@@ -2104,10 +2114,13 @@
       <c r="CM12" s="2">
         <v>4.3</v>
       </c>
+      <c r="CN12" s="2">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="13" spans="1:91">
+    <row r="13" spans="1:92">
       <c r="A13" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B13" s="5">
         <v>2.5</v>
@@ -2379,8 +2392,11 @@
       <c r="CM13" s="2">
         <v>2.8</v>
       </c>
+      <c r="CN13" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:91">
+    <row r="14" spans="1:92">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -2466,8 +2482,9 @@
       <c r="CK14" s="15"/>
       <c r="CL14" s="15"/>
       <c r="CM14" s="15"/>
+      <c r="CN14" s="15"/>
     </row>
-    <row r="15" spans="1:91">
+    <row r="15" spans="1:92">
       <c r="BV15" s="16"/>
       <c r="BW15" s="16"/>
       <c r="BX15" s="16"/>
@@ -2475,19 +2492,19 @@
       <c r="BZ15" s="16"/>
       <c r="CA15" s="16"/>
     </row>
-    <row r="16" spans="1:91">
+    <row r="16" spans="1:92">
       <c r="A16" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:91">
+    <row r="17" spans="1:92">
       <c r="A17" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:91">
+    <row r="18" spans="1:92">
       <c r="A18" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -2568,8 +2585,9 @@
       <c r="CK18" s="15"/>
       <c r="CL18" s="15"/>
       <c r="CM18" s="15"/>
+      <c r="CN18" s="15"/>
     </row>
-    <row r="19" spans="1:91">
+    <row r="19" spans="1:92">
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
@@ -2622,7 +2640,7 @@
       <c r="CA19" s="16"/>
       <c r="CB19" s="16"/>
     </row>
-    <row r="20" spans="1:91">
+    <row r="20" spans="1:92">
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
@@ -2893,10 +2911,13 @@
       <c r="CM20" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="CN20" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="21" spans="1:91">
+    <row r="21" spans="1:92">
       <c r="A21" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -3122,10 +3143,13 @@
       <c r="CM21" s="2">
         <v>5.2</v>
       </c>
+      <c r="CN21" s="2">
+        <v>5.3</v>
+      </c>
     </row>
-    <row r="22" spans="1:91">
+    <row r="22" spans="1:92">
       <c r="A22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -3351,10 +3375,13 @@
       <c r="CM22" s="2">
         <v>4</v>
       </c>
+      <c r="CN22" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:91">
+    <row r="23" spans="1:92">
       <c r="A23" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -3580,8 +3607,11 @@
       <c r="CM23" s="2">
         <v>3.3</v>
       </c>
+      <c r="CN23" s="2">
+        <v>3.2</v>
+      </c>
     </row>
-    <row r="24" spans="1:91">
+    <row r="24" spans="1:92">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -3666,8 +3696,9 @@
       <c r="CK24" s="15"/>
       <c r="CL24" s="15"/>
       <c r="CM24" s="15"/>
+      <c r="CN24" s="15"/>
     </row>
-    <row r="25" spans="1:91">
+    <row r="25" spans="1:92">
       <c r="BV25" s="16"/>
       <c r="BW25" s="16"/>
       <c r="BX25" s="16"/>
@@ -3676,19 +3707,19 @@
       <c r="CA25" s="16"/>
       <c r="CB25" s="16"/>
     </row>
-    <row r="26" spans="1:91">
+    <row r="26" spans="1:92">
       <c r="A26" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:91">
+    <row r="27" spans="1:92">
       <c r="A27" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:91">
+    <row r="28" spans="1:92">
       <c r="A28" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -3769,8 +3800,9 @@
       <c r="CK28" s="15"/>
       <c r="CL28" s="15"/>
       <c r="CM28" s="15"/>
+      <c r="CN28" s="15"/>
     </row>
-    <row r="29" spans="1:91">
+    <row r="29" spans="1:92">
       <c r="B29" s="3" t="s">
         <v>5</v>
       </c>
@@ -3823,7 +3855,7 @@
       <c r="CA29" s="16"/>
       <c r="CB29" s="16"/>
     </row>
-    <row r="30" spans="1:91">
+    <row r="30" spans="1:92">
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
@@ -4094,10 +4126,13 @@
       <c r="CM30" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="CN30" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="31" spans="1:91">
+    <row r="31" spans="1:92">
       <c r="A31" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -4249,10 +4284,13 @@
       <c r="CM31" s="2">
         <v>5</v>
       </c>
+      <c r="CN31" s="2">
+        <v>5.0999999999999996</v>
+      </c>
     </row>
-    <row r="32" spans="1:91">
+    <row r="32" spans="1:92">
       <c r="A32" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -4404,10 +4442,13 @@
       <c r="CM32" s="2">
         <v>4</v>
       </c>
+      <c r="CN32" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="33" spans="1:91">
+    <row r="33" spans="1:92">
       <c r="A33" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -4559,8 +4600,11 @@
       <c r="CM33" s="2">
         <v>2.6</v>
       </c>
+      <c r="CN33" s="2">
+        <v>2.8</v>
+      </c>
     </row>
-    <row r="34" spans="1:91">
+    <row r="34" spans="1:92">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -4645,10 +4689,11 @@
       <c r="CK34" s="15"/>
       <c r="CL34" s="15"/>
       <c r="CM34" s="15"/>
+      <c r="CN34" s="15"/>
     </row>
-    <row r="35" spans="1:91">
+    <row r="35" spans="1:92">
       <c r="A35" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BV35" s="16"/>
       <c r="BW35" s="16"/>
@@ -4667,9 +4712,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CM39"/>
+  <dimension ref="A1:CN39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CJ1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
@@ -4686,12 +4731,12 @@
     <col min="49" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" ht="17.25">
+    <row r="1" spans="1:92" ht="17.25">
       <c r="A1" s="8"/>
     </row>
-    <row r="2" spans="1:91">
+    <row r="2" spans="1:92">
       <c r="A2" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4738,30 +4783,30 @@
       <c r="AR2" s="10"/>
       <c r="AS2" s="10"/>
     </row>
-    <row r="3" spans="1:91" ht="17.25">
+    <row r="3" spans="1:92" ht="17.25">
       <c r="A3" s="8"/>
     </row>
-    <row r="4" spans="1:91">
+    <row r="4" spans="1:92">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:91">
+    <row r="5" spans="1:92">
       <c r="A5" s="11"/>
     </row>
-    <row r="6" spans="1:91">
+    <row r="6" spans="1:92">
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:91">
+    <row r="7" spans="1:92">
       <c r="A7" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:91">
+    <row r="8" spans="1:92">
       <c r="A8" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -4843,8 +4888,9 @@
       <c r="CK8" s="15"/>
       <c r="CL8" s="15"/>
       <c r="CM8" s="15"/>
+      <c r="CN8" s="15"/>
     </row>
-    <row r="9" spans="1:91">
+    <row r="9" spans="1:92">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -4896,7 +4942,7 @@
       <c r="CA9" s="16"/>
       <c r="CB9" s="16"/>
     </row>
-    <row r="10" spans="1:91">
+    <row r="10" spans="1:92">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
@@ -5167,10 +5213,13 @@
       <c r="CM10" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="CN10" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="11" spans="1:91">
+    <row r="11" spans="1:92">
       <c r="A11" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B11" s="5">
         <v>2.1</v>
@@ -5428,10 +5477,13 @@
       <c r="CM11" s="2">
         <v>4</v>
       </c>
+      <c r="CN11" s="2">
+        <v>4.2</v>
+      </c>
     </row>
-    <row r="12" spans="1:91">
+    <row r="12" spans="1:92">
       <c r="A12" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B12" s="5">
         <v>2</v>
@@ -5687,10 +5739,13 @@
       <c r="CM12" s="2">
         <v>4</v>
       </c>
+      <c r="CN12" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:91">
+    <row r="13" spans="1:92">
       <c r="A13" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B13" s="5">
         <v>1.9</v>
@@ -5948,8 +6003,11 @@
       <c r="CM13" s="2">
         <v>1</v>
       </c>
+      <c r="CN13" s="2">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
-    <row r="14" spans="1:91">
+    <row r="14" spans="1:92">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -6034,8 +6092,9 @@
       <c r="CK14" s="15"/>
       <c r="CL14" s="15"/>
       <c r="CM14" s="15"/>
+      <c r="CN14" s="15"/>
     </row>
-    <row r="15" spans="1:91">
+    <row r="15" spans="1:92">
       <c r="BV15" s="16"/>
       <c r="BW15" s="16"/>
       <c r="BX15" s="16"/>
@@ -6044,19 +6103,19 @@
       <c r="CA15" s="16"/>
       <c r="CB15" s="16"/>
     </row>
-    <row r="16" spans="1:91">
+    <row r="16" spans="1:92">
       <c r="A16" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:91">
+    <row r="17" spans="1:92">
       <c r="A17" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:91">
+    <row r="18" spans="1:92">
       <c r="A18" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -6139,8 +6198,9 @@
       <c r="CK18" s="15"/>
       <c r="CL18" s="15"/>
       <c r="CM18" s="15"/>
+      <c r="CN18" s="15"/>
     </row>
-    <row r="19" spans="1:91">
+    <row r="19" spans="1:92">
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
@@ -6191,7 +6251,7 @@
       <c r="CA19" s="16"/>
       <c r="CB19" s="16"/>
     </row>
-    <row r="20" spans="1:91">
+    <row r="20" spans="1:92">
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
@@ -6462,10 +6522,13 @@
       <c r="CM20" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="CN20" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="21" spans="1:91">
+    <row r="21" spans="1:92">
       <c r="A21" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -6659,10 +6722,13 @@
       <c r="CM21" s="2">
         <v>3.7</v>
       </c>
+      <c r="CN21" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:91">
+    <row r="22" spans="1:92">
       <c r="A22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -6856,10 +6922,13 @@
       <c r="CM22" s="2">
         <v>3.5</v>
       </c>
+      <c r="CN22" s="2">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="23" spans="1:91">
+    <row r="23" spans="1:92">
       <c r="A23" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -7053,8 +7122,11 @@
       <c r="CM23" s="2">
         <v>1.2</v>
       </c>
+      <c r="CN23" s="2">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:91">
+    <row r="24" spans="1:92">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -7139,8 +7211,9 @@
       <c r="CK24" s="15"/>
       <c r="CL24" s="15"/>
       <c r="CM24" s="15"/>
+      <c r="CN24" s="15"/>
     </row>
-    <row r="25" spans="1:91">
+    <row r="25" spans="1:92">
       <c r="BV25" s="16"/>
       <c r="BW25" s="16"/>
       <c r="BX25" s="16"/>
@@ -7149,19 +7222,19 @@
       <c r="CA25" s="16"/>
       <c r="CB25" s="16"/>
     </row>
-    <row r="26" spans="1:91">
+    <row r="26" spans="1:92">
       <c r="A26" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:91">
+    <row r="27" spans="1:92">
       <c r="A27" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:91">
+    <row r="28" spans="1:92">
       <c r="A28" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -7244,8 +7317,9 @@
       <c r="CK28" s="15"/>
       <c r="CL28" s="15"/>
       <c r="CM28" s="15"/>
+      <c r="CN28" s="15"/>
     </row>
-    <row r="29" spans="1:91">
+    <row r="29" spans="1:92">
       <c r="B29" s="3" t="s">
         <v>5</v>
       </c>
@@ -7296,7 +7370,7 @@
       <c r="CA29" s="16"/>
       <c r="CB29" s="16"/>
     </row>
-    <row r="30" spans="1:91">
+    <row r="30" spans="1:92">
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
@@ -7567,10 +7641,13 @@
       <c r="CM30" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="CN30" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="31" spans="1:91">
+    <row r="31" spans="1:92">
       <c r="A31" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -7720,10 +7797,13 @@
       <c r="CM31" s="2">
         <v>3.6</v>
       </c>
+      <c r="CN31" s="2">
+        <v>3.9</v>
+      </c>
     </row>
-    <row r="32" spans="1:91">
+    <row r="32" spans="1:92">
       <c r="A32" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -7873,10 +7953,13 @@
       <c r="CM32" s="2">
         <v>3.5</v>
       </c>
+      <c r="CN32" s="2">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="33" spans="1:91">
+    <row r="33" spans="1:92">
       <c r="A33" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -8026,8 +8109,11 @@
       <c r="CM33" s="2">
         <v>0.9</v>
       </c>
+      <c r="CN33" s="2">
+        <v>1.3</v>
+      </c>
     </row>
-    <row r="34" spans="1:91">
+    <row r="34" spans="1:92">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -8112,8 +8198,9 @@
       <c r="CK34" s="15"/>
       <c r="CL34" s="15"/>
       <c r="CM34" s="15"/>
+      <c r="CN34" s="15"/>
     </row>
-    <row r="35" spans="1:91">
+    <row r="35" spans="1:92">
       <c r="BV35" s="16"/>
       <c r="BW35" s="16"/>
       <c r="BX35" s="16"/>
@@ -8122,19 +8209,19 @@
       <c r="CA35" s="16"/>
       <c r="CB35" s="16"/>
     </row>
-    <row r="36" spans="1:91">
+    <row r="36" spans="1:92">
       <c r="A36" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:91">
+    <row r="37" spans="1:92">
       <c r="A37" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:91">
+    <row r="39" spans="1:92">
       <c r="A39" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -8165,7 +8252,7 @@
   <sheetData>
     <row r="2" spans="1:91" ht="17.25">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:91">
@@ -8484,7 +8571,7 @@
     </row>
     <row r="6" spans="1:91" ht="17.25">
       <c r="A6" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6" s="5">
         <v>1.6728464306933859</v>
@@ -8759,7 +8846,7 @@
     </row>
     <row r="7" spans="1:91" ht="17.25">
       <c r="A7" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" s="5">
         <v>1.8918263341286843</v>
@@ -9034,7 +9121,7 @@
     </row>
     <row r="8" spans="1:91" ht="17.25">
       <c r="A8" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B8" s="5">
         <v>2.4902406917840634</v>
@@ -9309,7 +9396,7 @@
     </row>
     <row r="9" spans="1:91" ht="17.25">
       <c r="A9" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B9" s="5">
         <v>2.9083419565991613</v>
@@ -9587,22 +9674,22 @@
     </row>
     <row r="12" spans="1:91" ht="49.5">
       <c r="A12" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:91" ht="49.5">
       <c r="A13" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:91" ht="133.5">
       <c r="A14" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:91" ht="133.5">
       <c r="A15" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:91">
@@ -9610,7 +9697,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/Verdbolguvaentingar-a-mismunandi-maelikvarda.xlsx
+++ b/data/Verdbolguvaentingar-a-mismunandi-maelikvarda.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29728"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E22569C-C715-48B0-8437-49523F558166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D70FD86-4804-4F3F-88F6-43535411B338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25260" yWindow="21600" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20025" yWindow="2580" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heimili_Households" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentManualCount="32"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="122">
   <si>
     <t>Verðbólguvæntingar heimila / Household inflation expectations</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>2025Q3</t>
+  </si>
+  <si>
+    <t>2025Q4</t>
   </si>
   <si>
     <t>Meðaltal / average</t>
@@ -450,64 +453,16 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Verðbólguálag til 1 árs / 1-year breakeven rate</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Verðbólguálag til 2 ára / 2-year breakeven rate</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Verðbólguálag til 5 ára / 5-year breakeven rate</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Verðbólguálag til 10 ára / 10-year breakeven rate</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
+    <t>Verðbólguálag til 1 árs / 1-year breakeven rate</t>
+  </si>
+  <si>
+    <t>Verðbólguálag til 2 ára / 2-year breakeven rate</t>
+  </si>
+  <si>
+    <t>Verðbólguálag til 5 ára / 5-year breakeven rate</t>
+  </si>
+  <si>
+    <t>Verðbólguálag til 10 ára / 10-year breakeven rate</t>
   </si>
   <si>
     <t>1. Ársfjórðungsleg meðaltöl. Verðbólguálagið er reiknað út frá vaxtamun verðtryggðra og óverðtryggðra skuldabréfa. Við túlkun þess þarf að hafa í huga að það inniheldur einnig áhættuálag sem tengist seljanleika bréfanna auk áhættuálags vegna óvissu um verðbólgu.</t>
@@ -522,31 +477,6 @@
       </rPr>
       <t xml:space="preserve">1. Quarterly averages. The breakeven inflation rate is calculated from the spread between indexed and nominal bond interest rates. It should be borne in mind, however, that the breakeven rate also includes a liquidity risk premium and an inflation risk premium.  </t>
     </r>
-  </si>
-  <si>
-    <t>2. Við mat á eingreiðsluferli verðtryggðra og óverðtryggðra vaxta notast
-Seðlabankinn við aðferð Nelson-Siegel. Matið á verðtryggða vaxtaferlinum
-hefur í vaxandi mæli litast af ávöxtun skuldabréfs sem er á
-gjalddaga snemma á næsta ári og datt út úr viðskiptavakt um miðjan
-ágúst. Bréfið hefur valdið því að verðtryggðir eingreiðsluvextir hafa
-undanfarið mælst of háir miðað við fyrirliggjandi meðallöng verðtryggð
-skuldabréf og þannig leitt til vanmats á verðbólguálagi á skuldabréfamarkaði
-til skemmri og meðallangs tíma. Til að laga þetta hefur þetta
-skuldabréf verið tekið út úr matinu frá því í maí í fyrra sem hefur áhrif á
-söguleg gögn um verðbólguálagið og metna raunvexti út frá álaginu.</t>
-  </si>
-  <si>
-    <t>2. The indexed and non-indexed zero-coupon yield curves are estimated
-using the Nelson-Siegel method. The estimation of the indexed yield
-curve has increasingly been affected by yields on a bond maturing
-in early 2026, for which market making was discontinued as of mid-
-August. This bond has caused indexed zero-coupon rates to measure
-excessively high in terms of current medium-term indexed bonds,
-thereby leading to an underestimation of the short- and medium-term
-breakeven inflation rate in the bond market. In order to correct for this,
-the bond in question was removed from the estimation from May 2024
-onwards, which affects historical data on both the breakeven rate and
-the real rate as estimated from the breakeven rate.</t>
   </si>
   <si>
     <r>
@@ -577,7 +507,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,13 +612,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -1057,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CN35"/>
+  <dimension ref="A1:CO35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CL1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CJ1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -1076,10 +999,10 @@
     <col min="49" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" ht="17.25">
+    <row r="1" spans="1:93" ht="17.25">
       <c r="A1" s="8"/>
     </row>
-    <row r="2" spans="1:92">
+    <row r="2" spans="1:93">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1128,28 +1051,28 @@
       <c r="AR2" s="10"/>
       <c r="AS2" s="10"/>
     </row>
-    <row r="3" spans="1:92" ht="17.25">
+    <row r="3" spans="1:93" ht="17.25">
       <c r="A3" s="8"/>
     </row>
-    <row r="4" spans="1:92">
+    <row r="4" spans="1:93">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:92">
+    <row r="5" spans="1:93">
       <c r="A5" s="11"/>
     </row>
-    <row r="6" spans="1:92">
+    <row r="6" spans="1:93">
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:92">
+    <row r="7" spans="1:93">
       <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:92">
+    <row r="8" spans="1:93">
       <c r="A8" s="14" t="s">
         <v>4</v>
       </c>
@@ -1234,8 +1157,9 @@
       <c r="CL8" s="15"/>
       <c r="CM8" s="15"/>
       <c r="CN8" s="15"/>
+      <c r="CO8" s="15"/>
     </row>
-    <row r="9" spans="1:92">
+    <row r="9" spans="1:93">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1287,7 +1211,7 @@
       <c r="BZ9" s="16"/>
       <c r="CA9" s="16"/>
     </row>
-    <row r="10" spans="1:92">
+    <row r="10" spans="1:93">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1561,10 +1485,13 @@
       <c r="CN10" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="CO10" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="11" spans="1:92">
+    <row r="11" spans="1:93">
       <c r="A11" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B11" s="5">
         <v>3.6</v>
@@ -1839,10 +1766,13 @@
       <c r="CN11" s="2">
         <v>5.5</v>
       </c>
+      <c r="CO11" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:92">
+    <row r="12" spans="1:93">
       <c r="A12" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B12" s="5">
         <v>3</v>
@@ -2117,10 +2047,13 @@
       <c r="CN12" s="2">
         <v>4.5</v>
       </c>
+      <c r="CO12" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:92">
+    <row r="13" spans="1:93">
       <c r="A13" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B13" s="5">
         <v>2.5</v>
@@ -2395,8 +2328,11 @@
       <c r="CN13" s="2">
         <v>3</v>
       </c>
+      <c r="CO13" s="2">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
-    <row r="14" spans="1:92">
+    <row r="14" spans="1:93">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -2483,8 +2419,9 @@
       <c r="CL14" s="15"/>
       <c r="CM14" s="15"/>
       <c r="CN14" s="15"/>
+      <c r="CO14" s="15"/>
     </row>
-    <row r="15" spans="1:92">
+    <row r="15" spans="1:93">
       <c r="BV15" s="16"/>
       <c r="BW15" s="16"/>
       <c r="BX15" s="16"/>
@@ -2492,19 +2429,19 @@
       <c r="BZ15" s="16"/>
       <c r="CA15" s="16"/>
     </row>
-    <row r="16" spans="1:92">
+    <row r="16" spans="1:93">
       <c r="A16" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:92">
+    <row r="17" spans="1:93">
       <c r="A17" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:92">
+    <row r="18" spans="1:93">
       <c r="A18" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -2586,8 +2523,9 @@
       <c r="CL18" s="15"/>
       <c r="CM18" s="15"/>
       <c r="CN18" s="15"/>
+      <c r="CO18" s="15"/>
     </row>
-    <row r="19" spans="1:92">
+    <row r="19" spans="1:93">
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
@@ -2640,7 +2578,7 @@
       <c r="CA19" s="16"/>
       <c r="CB19" s="16"/>
     </row>
-    <row r="20" spans="1:92">
+    <row r="20" spans="1:93">
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
@@ -2914,10 +2852,13 @@
       <c r="CN20" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="CO20" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="21" spans="1:92">
+    <row r="21" spans="1:93">
       <c r="A21" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -3146,10 +3087,13 @@
       <c r="CN21" s="2">
         <v>5.3</v>
       </c>
+      <c r="CO21" s="2">
+        <v>4.9000000000000004</v>
+      </c>
     </row>
-    <row r="22" spans="1:92">
+    <row r="22" spans="1:93">
       <c r="A22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -3378,10 +3322,13 @@
       <c r="CN22" s="2">
         <v>4</v>
       </c>
+      <c r="CO22" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:92">
+    <row r="23" spans="1:93">
       <c r="A23" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -3610,8 +3557,11 @@
       <c r="CN23" s="2">
         <v>3.2</v>
       </c>
+      <c r="CO23" s="2">
+        <v>2.8</v>
+      </c>
     </row>
-    <row r="24" spans="1:92">
+    <row r="24" spans="1:93">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -3697,8 +3647,9 @@
       <c r="CL24" s="15"/>
       <c r="CM24" s="15"/>
       <c r="CN24" s="15"/>
+      <c r="CO24" s="15"/>
     </row>
-    <row r="25" spans="1:92">
+    <row r="25" spans="1:93">
       <c r="BV25" s="16"/>
       <c r="BW25" s="16"/>
       <c r="BX25" s="16"/>
@@ -3707,19 +3658,19 @@
       <c r="CA25" s="16"/>
       <c r="CB25" s="16"/>
     </row>
-    <row r="26" spans="1:92">
+    <row r="26" spans="1:93">
       <c r="A26" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:92">
+    <row r="27" spans="1:93">
       <c r="A27" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:92">
+    <row r="28" spans="1:93">
       <c r="A28" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -3801,8 +3752,9 @@
       <c r="CL28" s="15"/>
       <c r="CM28" s="15"/>
       <c r="CN28" s="15"/>
+      <c r="CO28" s="15"/>
     </row>
-    <row r="29" spans="1:92">
+    <row r="29" spans="1:93">
       <c r="B29" s="3" t="s">
         <v>5</v>
       </c>
@@ -3855,7 +3807,7 @@
       <c r="CA29" s="16"/>
       <c r="CB29" s="16"/>
     </row>
-    <row r="30" spans="1:92">
+    <row r="30" spans="1:93">
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
@@ -4129,10 +4081,13 @@
       <c r="CN30" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="CO30" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="31" spans="1:92">
+    <row r="31" spans="1:93">
       <c r="A31" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -4287,10 +4242,13 @@
       <c r="CN31" s="2">
         <v>5.0999999999999996</v>
       </c>
+      <c r="CO31" s="2">
+        <v>4.5999999999999996</v>
+      </c>
     </row>
-    <row r="32" spans="1:92">
+    <row r="32" spans="1:93">
       <c r="A32" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -4445,10 +4403,13 @@
       <c r="CN32" s="2">
         <v>4</v>
       </c>
+      <c r="CO32" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="33" spans="1:92">
+    <row r="33" spans="1:93">
       <c r="A33" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -4603,8 +4564,11 @@
       <c r="CN33" s="2">
         <v>2.8</v>
       </c>
+      <c r="CO33" s="2">
+        <v>2.2000000000000002</v>
+      </c>
     </row>
-    <row r="34" spans="1:92">
+    <row r="34" spans="1:93">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -4690,10 +4654,11 @@
       <c r="CL34" s="15"/>
       <c r="CM34" s="15"/>
       <c r="CN34" s="15"/>
+      <c r="CO34" s="15"/>
     </row>
-    <row r="35" spans="1:92">
+    <row r="35" spans="1:93">
       <c r="A35" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BV35" s="16"/>
       <c r="BW35" s="16"/>
@@ -4712,9 +4677,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CN39"/>
+  <dimension ref="A1:CO39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CJ1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
@@ -4731,12 +4696,12 @@
     <col min="49" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" ht="17.25">
+    <row r="1" spans="1:93" ht="17.25">
       <c r="A1" s="8"/>
     </row>
-    <row r="2" spans="1:92">
+    <row r="2" spans="1:93">
       <c r="A2" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4783,30 +4748,30 @@
       <c r="AR2" s="10"/>
       <c r="AS2" s="10"/>
     </row>
-    <row r="3" spans="1:92" ht="17.25">
+    <row r="3" spans="1:93" ht="17.25">
       <c r="A3" s="8"/>
     </row>
-    <row r="4" spans="1:92">
+    <row r="4" spans="1:93">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:92">
+    <row r="5" spans="1:93">
       <c r="A5" s="11"/>
     </row>
-    <row r="6" spans="1:92">
+    <row r="6" spans="1:93">
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:92">
+    <row r="7" spans="1:93">
       <c r="A7" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:92">
+    <row r="8" spans="1:93">
       <c r="A8" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -4889,8 +4854,9 @@
       <c r="CL8" s="15"/>
       <c r="CM8" s="15"/>
       <c r="CN8" s="15"/>
+      <c r="CO8" s="15"/>
     </row>
-    <row r="9" spans="1:92">
+    <row r="9" spans="1:93">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -4942,7 +4908,7 @@
       <c r="CA9" s="16"/>
       <c r="CB9" s="16"/>
     </row>
-    <row r="10" spans="1:92">
+    <row r="10" spans="1:93">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
@@ -5216,10 +5182,13 @@
       <c r="CN10" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="CO10" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="11" spans="1:92">
+    <row r="11" spans="1:93">
       <c r="A11" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B11" s="5">
         <v>2.1</v>
@@ -5480,10 +5449,13 @@
       <c r="CN11" s="2">
         <v>4.2</v>
       </c>
+      <c r="CO11" s="2">
+        <v>4.2</v>
+      </c>
     </row>
-    <row r="12" spans="1:92">
+    <row r="12" spans="1:93">
       <c r="A12" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B12" s="5">
         <v>2</v>
@@ -5742,10 +5714,13 @@
       <c r="CN12" s="2">
         <v>4</v>
       </c>
+      <c r="CO12" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:92">
+    <row r="13" spans="1:93">
       <c r="A13" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B13" s="5">
         <v>1.9</v>
@@ -6006,8 +5981,11 @@
       <c r="CN13" s="2">
         <v>1.1000000000000001</v>
       </c>
+      <c r="CO13" s="2">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
-    <row r="14" spans="1:92">
+    <row r="14" spans="1:93">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -6093,8 +6071,9 @@
       <c r="CL14" s="15"/>
       <c r="CM14" s="15"/>
       <c r="CN14" s="15"/>
+      <c r="CO14" s="15"/>
     </row>
-    <row r="15" spans="1:92">
+    <row r="15" spans="1:93">
       <c r="BV15" s="16"/>
       <c r="BW15" s="16"/>
       <c r="BX15" s="16"/>
@@ -6103,19 +6082,19 @@
       <c r="CA15" s="16"/>
       <c r="CB15" s="16"/>
     </row>
-    <row r="16" spans="1:92">
+    <row r="16" spans="1:93">
       <c r="A16" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:92">
+    <row r="17" spans="1:93">
       <c r="A17" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:92">
+    <row r="18" spans="1:93">
       <c r="A18" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -6199,8 +6178,9 @@
       <c r="CL18" s="15"/>
       <c r="CM18" s="15"/>
       <c r="CN18" s="15"/>
+      <c r="CO18" s="15"/>
     </row>
-    <row r="19" spans="1:92">
+    <row r="19" spans="1:93">
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
@@ -6251,7 +6231,7 @@
       <c r="CA19" s="16"/>
       <c r="CB19" s="16"/>
     </row>
-    <row r="20" spans="1:92">
+    <row r="20" spans="1:93">
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
@@ -6525,10 +6505,13 @@
       <c r="CN20" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="CO20" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="21" spans="1:92">
+    <row r="21" spans="1:93">
       <c r="A21" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -6725,10 +6708,13 @@
       <c r="CN21" s="2">
         <v>4</v>
       </c>
+      <c r="CO21" s="2">
+        <v>3.9</v>
+      </c>
     </row>
-    <row r="22" spans="1:92">
+    <row r="22" spans="1:93">
       <c r="A22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -6925,10 +6911,13 @@
       <c r="CN22" s="2">
         <v>3.5</v>
       </c>
+      <c r="CO22" s="2">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="23" spans="1:92">
+    <row r="23" spans="1:93">
       <c r="A23" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -7125,8 +7114,11 @@
       <c r="CN23" s="2">
         <v>1.5</v>
       </c>
+      <c r="CO23" s="2">
+        <v>1.3</v>
+      </c>
     </row>
-    <row r="24" spans="1:92">
+    <row r="24" spans="1:93">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -7212,8 +7204,9 @@
       <c r="CL24" s="15"/>
       <c r="CM24" s="15"/>
       <c r="CN24" s="15"/>
+      <c r="CO24" s="15"/>
     </row>
-    <row r="25" spans="1:92">
+    <row r="25" spans="1:93">
       <c r="BV25" s="16"/>
       <c r="BW25" s="16"/>
       <c r="BX25" s="16"/>
@@ -7222,19 +7215,19 @@
       <c r="CA25" s="16"/>
       <c r="CB25" s="16"/>
     </row>
-    <row r="26" spans="1:92">
+    <row r="26" spans="1:93">
       <c r="A26" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:92">
+    <row r="27" spans="1:93">
       <c r="A27" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:92">
+    <row r="28" spans="1:93">
       <c r="A28" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -7318,8 +7311,9 @@
       <c r="CL28" s="15"/>
       <c r="CM28" s="15"/>
       <c r="CN28" s="15"/>
+      <c r="CO28" s="15"/>
     </row>
-    <row r="29" spans="1:92">
+    <row r="29" spans="1:93">
       <c r="B29" s="3" t="s">
         <v>5</v>
       </c>
@@ -7370,7 +7364,7 @@
       <c r="CA29" s="16"/>
       <c r="CB29" s="16"/>
     </row>
-    <row r="30" spans="1:92">
+    <row r="30" spans="1:93">
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
@@ -7644,10 +7638,13 @@
       <c r="CN30" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="CO30" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="31" spans="1:92">
+    <row r="31" spans="1:93">
       <c r="A31" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -7800,10 +7797,13 @@
       <c r="CN31" s="2">
         <v>3.9</v>
       </c>
+      <c r="CO31" s="2">
+        <v>3.8</v>
+      </c>
     </row>
-    <row r="32" spans="1:92">
+    <row r="32" spans="1:93">
       <c r="A32" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -7956,10 +7956,13 @@
       <c r="CN32" s="2">
         <v>3.5</v>
       </c>
+      <c r="CO32" s="2">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="33" spans="1:92">
+    <row r="33" spans="1:93">
       <c r="A33" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -8112,8 +8115,11 @@
       <c r="CN33" s="2">
         <v>1.3</v>
       </c>
+      <c r="CO33" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:92">
+    <row r="34" spans="1:93">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -8199,8 +8205,9 @@
       <c r="CL34" s="15"/>
       <c r="CM34" s="15"/>
       <c r="CN34" s="15"/>
+      <c r="CO34" s="15"/>
     </row>
-    <row r="35" spans="1:92">
+    <row r="35" spans="1:93">
       <c r="BV35" s="16"/>
       <c r="BW35" s="16"/>
       <c r="BX35" s="16"/>
@@ -8209,19 +8216,19 @@
       <c r="CA35" s="16"/>
       <c r="CB35" s="16"/>
     </row>
-    <row r="36" spans="1:92">
+    <row r="36" spans="1:93">
       <c r="A36" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:92">
+    <row r="37" spans="1:93">
       <c r="A37" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:92">
+    <row r="39" spans="1:93">
       <c r="A39" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -8233,11 +8240,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:CM17"/>
+  <dimension ref="A2:CO16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="BU6" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" sqref="A1:A1048576"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="BZ6" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="CO5" sqref="CO5:CO9"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -8250,12 +8257,12 @@
     <col min="69" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:91" ht="17.25">
+    <row r="2" spans="1:93" ht="17.25">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:91">
+    <row r="4" spans="1:93">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -8297,7 +8304,7 @@
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
     </row>
-    <row r="5" spans="1:91">
+    <row r="5" spans="1:93">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -8568,10 +8575,16 @@
       <c r="CM5" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="CN5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="CO5" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="6" spans="1:91" ht="17.25">
+    <row r="6" spans="1:93" ht="17.25">
       <c r="A6" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" s="5">
         <v>1.6728464306933859</v>
@@ -8843,10 +8856,16 @@
       <c r="CM6" s="2">
         <v>4</v>
       </c>
+      <c r="CN6" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="CO6" s="2">
+        <v>3.7</v>
+      </c>
     </row>
-    <row r="7" spans="1:91" ht="17.25">
+    <row r="7" spans="1:93" ht="17.25">
       <c r="A7" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" s="5">
         <v>1.8918263341286843</v>
@@ -9118,10 +9137,16 @@
       <c r="CM7" s="2">
         <v>4</v>
       </c>
+      <c r="CN7" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="CO7" s="2">
+        <v>3.6</v>
+      </c>
     </row>
-    <row r="8" spans="1:91" ht="17.25">
+    <row r="8" spans="1:93" ht="17.25">
       <c r="A8" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="5">
         <v>2.4902406917840634</v>
@@ -9393,10 +9418,16 @@
       <c r="CM8" s="2">
         <v>3.9</v>
       </c>
+      <c r="CN8" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="CO8" s="2">
+        <v>3.6</v>
+      </c>
     </row>
-    <row r="9" spans="1:91" ht="17.25">
+    <row r="9" spans="1:93" ht="17.25">
       <c r="A9" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B9" s="5">
         <v>2.9083419565991613</v>
@@ -9668,41 +9699,46 @@
       <c r="CM9" s="2">
         <v>3.9</v>
       </c>
+      <c r="CN9" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="CO9" s="2">
+        <v>3.6</v>
+      </c>
     </row>
-    <row r="10" spans="1:91">
+    <row r="10" spans="1:93">
       <c r="BP10" s="5"/>
     </row>
-    <row r="12" spans="1:91" ht="49.5">
+    <row r="12" spans="1:93" ht="49.5">
       <c r="A12" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:91" ht="49.5">
+    <row r="13" spans="1:93" ht="49.5">
       <c r="A13" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:91" ht="133.5">
-      <c r="A14" s="6" t="s">
-        <v>120</v>
-      </c>
+    <row r="14" spans="1:93">
+      <c r="A14" s="6"/>
     </row>
-    <row r="15" spans="1:91" ht="133.5">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:93">
+      <c r="A15" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:91">
+    <row r="16" spans="1:93">
       <c r="A16" s="6"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="7" t="s">
-        <v>122</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{d0b21864-3105-44b5-88b9-2cedf9af7954}" enabled="1" method="Standard" siteId="{b9aaf114-bd80-4df3-b43d-ab54dd47f83f}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>